--- a/Sub-System Design and Documentation/Structural Assembly/Washing Machine Sizing Calculations.xlsx
+++ b/Sub-System Design and Documentation/Structural Assembly/Washing Machine Sizing Calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\Sub-System Design and Documentation\Structural Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B47C773-C596-4DDA-90E8-7FB53E5F80B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A281FD-A3E7-4339-BCAD-1540E09B0953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundational Information" sheetId="1" r:id="rId1"/>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D10:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1262,7 +1262,7 @@
   <dimension ref="C17:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1383,7 +1383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B30CDC-44AC-42F1-89E2-E45251F3B6EA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>

--- a/Sub-System Design and Documentation/Structural Assembly/Washing Machine Sizing Calculations.xlsx
+++ b/Sub-System Design and Documentation/Structural Assembly/Washing Machine Sizing Calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\Sub-System Design and Documentation\Structural Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A281FD-A3E7-4339-BCAD-1540E09B0953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C60DD5-2232-4AF1-894D-CDF8BB936C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Chamber and Piston Attributes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Sub-System Design and Documentation/Structural Assembly/Washing Machine Sizing Calculations.xlsx
+++ b/Sub-System Design and Documentation/Structural Assembly/Washing Machine Sizing Calculations.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\Sub-System Design and Documentation\Structural Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C60DD5-2232-4AF1-894D-CDF8BB936C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B99FEB-CA79-4962-BE7F-B54352844B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundational Information" sheetId="1" r:id="rId1"/>
-    <sheet name="Statics and Force Application" sheetId="2" r:id="rId2"/>
-    <sheet name="Structural Member Design" sheetId="4" r:id="rId3"/>
-    <sheet name="Chamber and Piston Attributes" sheetId="3" r:id="rId4"/>
+    <sheet name="Max Allowable Stress" sheetId="5" r:id="rId2"/>
+    <sheet name="Statics and Force Application" sheetId="2" r:id="rId3"/>
+    <sheet name="Structural Member Design" sheetId="4" r:id="rId4"/>
+    <sheet name="Chamber and Piston Attributes" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
   <si>
     <t>Wash Chamber Diameter</t>
   </si>
@@ -301,6 +301,72 @@
   </si>
   <si>
     <t>Electronics</t>
+  </si>
+  <si>
+    <t>Method:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People Accomodated </t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Crew Size for the ISS</t>
+  </si>
+  <si>
+    <t>Compressions Per Wash Min</t>
+  </si>
+  <si>
+    <t>Compressions Per Wash Max</t>
+  </si>
+  <si>
+    <t>Determine the number of compression cycles that need to take place over the products working lifespan to determine max stress each member can experience under normal operations.</t>
+  </si>
+  <si>
+    <t>Load Bearing Material</t>
+  </si>
+  <si>
+    <t>Stress for Given Lifespan</t>
+  </si>
+  <si>
+    <t>303 Stainless Steel</t>
+  </si>
+  <si>
+    <t>Aluminium 3004-H19</t>
+  </si>
+  <si>
+    <t>Aluminium 3104-H19</t>
+  </si>
+  <si>
+    <t>304 Stainless Steel</t>
+  </si>
+  <si>
+    <t>One compression for hydration, agitation, and removal of water respectively</t>
+  </si>
+  <si>
+    <t>Arbitrarily chosen to accommodate multiple compressions per wash phase</t>
+  </si>
+  <si>
+    <t>Wash Rate</t>
+  </si>
+  <si>
+    <t>Wash/Person/Day</t>
+  </si>
+  <si>
+    <t>Assuming washing full set of clothes per day (over-estimation)</t>
+  </si>
+  <si>
+    <t># of Compression Cycles</t>
+  </si>
+  <si>
+    <t>Designed Life-Span</t>
+  </si>
+  <si>
+    <t>Years</t>
   </si>
 </sst>
 </file>
@@ -869,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D10:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1036,7 +1102,7 @@
       </c>
       <c r="E28" s="4">
         <f>'Statics and Force Application'!D24</f>
-        <v>880.00000000000011</v>
+        <v>1100</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -1138,7 +1204,7 @@
       </c>
       <c r="E39">
         <f>E28/E38</f>
-        <v>70.028174960433958</v>
+        <v>87.535218700542444</v>
       </c>
       <c r="F39" t="s">
         <v>30</v>
@@ -1259,11 +1325,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E64C1E-DEE1-47A9-A860-208FA0E46941}">
+  <dimension ref="B3:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.265625" customWidth="1"/>
+    <col min="11" max="11" width="19.06640625" customWidth="1"/>
+    <col min="12" max="12" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72D662D-1DD5-42ED-9C8F-20E55F92E359}">
   <dimension ref="C17:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1312,7 +1525,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -1341,7 +1554,7 @@
       </c>
       <c r="D24" s="4">
         <f>(D21+D22)*(1+D23)</f>
-        <v>880.00000000000011</v>
+        <v>1100</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -1380,11 +1593,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B30CDC-44AC-42F1-89E2-E45251F3B6EA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1394,7 +1607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BD5B95-2334-4B4C-B562-C25DB0F54F68}">
   <dimension ref="C18:D36"/>
   <sheetViews>
